--- a/Graphs/15次高調波の比較.xlsx
+++ b/Graphs/15次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11047604925090579"/>
+          <c:x val="6.3992876559697334E-2"/>
           <c:y val="1.4362657091561939E-2"/>
-          <c:w val="0.87375496142078291"/>
-          <c:h val="0.87742659636127174"/>
+          <c:w val="0.92023815776850926"/>
+          <c:h val="0.89126151059911296"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -394,7 +394,7 @@
             <c:v>測定1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -404,7 +404,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1230,7 +1230,7 @@
             <c:v>測定2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1240,7 +1240,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2067,13 +2067,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467556216"/>
-        <c:axId val="467555824"/>
+        <c:axId val="1516979928"/>
+        <c:axId val="1516985416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467556216"/>
+        <c:axId val="1516979928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2093,7 +2094,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2106,14 +2107,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>XUV-IR delay[fs]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44568177711522244"/>
+              <c:y val="0.92118835340134997"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2127,7 +2135,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2165,7 +2173,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2180,12 +2188,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467555824"/>
+        <c:crossAx val="1516985416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467555824"/>
+        <c:axId val="1516985416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,18 +2228,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
                   <a:t>信号強度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>[a.u]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2976186149513912E-2"/>
+              <c:y val="0.32053938794715708"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2283,7 +2298,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2298,7 +2313,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467556216"/>
+        <c:crossAx val="1516979928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2311,17 +2326,54 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.77989021518394153"/>
-          <c:y val="5.3173391147589157E-2"/>
-          <c:w val="0.15065913370998116"/>
-          <c:h val="0.22920463487844989"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="tr"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3262,12 +3314,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467558568"/>
-        <c:axId val="562705976"/>
+        <c:axId val="1516982280"/>
+        <c:axId val="1516983848"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467558568"/>
+        <c:axId val="1516982280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,7 +3361,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3376,12 +3427,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562705976"/>
+        <c:crossAx val="1516983848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562705976"/>
+        <c:axId val="1516983848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3427,7 +3478,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3494,7 +3544,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467558568"/>
+        <c:crossAx val="1516982280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4417,12 +4467,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562707544"/>
-        <c:axId val="562702448"/>
+        <c:axId val="1516984240"/>
+        <c:axId val="1516981104"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562707544"/>
+        <c:axId val="1516984240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4464,7 +4514,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4531,12 +4580,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562702448"/>
+        <c:crossAx val="1516981104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562702448"/>
+        <c:axId val="1516981104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4582,7 +4631,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4649,7 +4697,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562707544"/>
+        <c:crossAx val="1516984240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5226,11 +5274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562703624"/>
-        <c:axId val="562705584"/>
+        <c:axId val="950369096"/>
+        <c:axId val="950373016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562703624"/>
+        <c:axId val="950369096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5338,12 +5386,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562705584"/>
+        <c:crossAx val="950373016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562705584"/>
+        <c:axId val="950373016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5455,7 +5503,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562703624"/>
+        <c:crossAx val="950369096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7740,8 +7788,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/Graphs/15次高調波の比較.xlsx
+++ b/Graphs/15次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,187 +424,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.959</c:v>
+                  <c:v>15.959999999999894</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>15.627499999999891</c:v>
@@ -1260,187 +1260,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.959</c:v>
+                  <c:v>15.959999999999894</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>15.627499999999891</c:v>
@@ -2067,11 +2067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1516979928"/>
-        <c:axId val="1516985416"/>
+        <c:axId val="1098062784"/>
+        <c:axId val="1098061216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1516979928"/>
+        <c:axId val="1098062784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -2188,12 +2188,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516985416"/>
+        <c:crossAx val="1098061216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1516985416"/>
+        <c:axId val="1098061216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,7 +2313,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516979928"/>
+        <c:crossAx val="1098062784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2507,187 +2507,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.959</c:v>
+                  <c:v>15.959999999999894</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>15.627499999999891</c:v>
@@ -3314,12 +3314,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1516982280"/>
-        <c:axId val="1516983848"/>
+        <c:axId val="1098067488"/>
+        <c:axId val="1098063176"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1516982280"/>
+        <c:axId val="1098067488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3361,6 +3361,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3427,12 +3428,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516983848"/>
+        <c:crossAx val="1098063176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1516983848"/>
+        <c:axId val="1098063176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3478,6 +3479,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3544,7 +3546,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516982280"/>
+        <c:crossAx val="1098067488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3660,187 +3662,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.959</c:v>
+                  <c:v>15.959999999999894</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>15.627499999999891</c:v>
@@ -4467,12 +4469,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1516984240"/>
-        <c:axId val="1516981104"/>
+        <c:axId val="1098063568"/>
+        <c:axId val="1098063960"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1516984240"/>
+        <c:axId val="1098063568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4514,6 +4516,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4580,12 +4583,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516981104"/>
+        <c:crossAx val="1098063960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1516981104"/>
+        <c:axId val="1098063960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,6 +4634,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4697,7 +4701,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516984240"/>
+        <c:crossAx val="1098063568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4846,67 +4850,67 @@
                   <c:v>14.629999999999896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>18.619999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>19.949999999999896</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>21.279999999999895</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>22.609999999999893</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.939999999999891</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>23.939999999999898</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>25.269999999999897</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>26.599999999999895</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>27.929999999999893</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>29.259999999999891</c:v>
-                </c:pt>
                 <c:pt idx="22">
+                  <c:v>29.259999999999899</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>30.589999999999897</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>31.919999999999895</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>33.249999999999893</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.579999999999892</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>38.569999999999894</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>39.899999999999892</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>39.899999999999899</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>41.229999999999897</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>42.559999999999896</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43.889999999999894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,64 +5098,64 @@
                   <c:v>15.959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>22.609999999999893</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.939999999999891</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>31.919999999999895</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>33.249999999999893</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>38.569999999999894</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>39.899999999999892</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5274,11 +5278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="950369096"/>
-        <c:axId val="950373016"/>
+        <c:axId val="1098065920"/>
+        <c:axId val="1098066704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="950369096"/>
+        <c:axId val="1098065920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5320,6 +5324,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5386,12 +5391,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950373016"/>
+        <c:crossAx val="1098066704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="950373016"/>
+        <c:axId val="1098066704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5437,6 +5442,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5503,7 +5509,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950369096"/>
+        <c:crossAx val="1098065920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7889,16 +7895,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8211,7 +8217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -8227,8 +8233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C131"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8238,7 +8244,7 @@
         <v>33</v>
       </c>
       <c r="B1">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C1">
         <v>7128</v>
@@ -8264,7 +8270,7 @@
       </c>
       <c r="J1">
         <f>MOD(B1,1.33)</f>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -8272,7 +8278,7 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>43.446666666666594</v>
+        <v>42.116666666666596</v>
       </c>
       <c r="C2">
         <v>7595</v>
@@ -8298,7 +8304,7 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J65" si="3">MOD(B2,1.33)</f>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -8306,7 +8312,7 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>43.003333333333195</v>
+        <v>41.673333333333197</v>
       </c>
       <c r="C3">
         <v>7634</v>
@@ -8332,7 +8338,7 @@
       </c>
       <c r="J3">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -8340,7 +8346,7 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C4">
         <v>7367</v>
@@ -8366,7 +8372,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -8374,7 +8380,7 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>41.894999999999889</v>
+        <v>40.564999999999891</v>
       </c>
       <c r="C5">
         <v>7002</v>
@@ -8400,7 +8406,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.66499999999988724</v>
+        <v>0.66499999999988901</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -8408,7 +8414,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C6">
         <v>7045</v>
@@ -8427,7 +8433,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -8435,7 +8441,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>40.786666666666598</v>
+        <v>39.456666666666599</v>
       </c>
       <c r="C7">
         <v>7632</v>
@@ -8454,7 +8460,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>0.88666666666659566</v>
+        <v>0.88666666666659744</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -8462,7 +8468,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>40.343333333333199</v>
+        <v>39.0133333333332</v>
       </c>
       <c r="C8">
         <v>7872</v>
@@ -8481,7 +8487,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.44333333333319658</v>
+        <v>0.44333333333319835</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -8489,7 +8495,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C9">
         <v>8180</v>
@@ -8508,7 +8514,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -8516,7 +8522,7 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>39.234999999999893</v>
+        <v>37.904999999999895</v>
       </c>
       <c r="C10">
         <v>7486</v>
@@ -8535,7 +8541,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -8543,7 +8549,7 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C11">
         <v>7417</v>
@@ -8562,7 +8568,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -8570,7 +8576,7 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>38.126666666666594</v>
+        <v>36.796666666666596</v>
       </c>
       <c r="C12">
         <v>7189</v>
@@ -8589,7 +8595,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -8597,7 +8603,7 @@
         <v>45</v>
       </c>
       <c r="B13">
-        <v>37.683333333333195</v>
+        <v>36.353333333333197</v>
       </c>
       <c r="C13">
         <v>7672</v>
@@ -8616,7 +8622,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -8624,7 +8630,7 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C14">
         <v>8253</v>
@@ -8643,7 +8649,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>1.3299999999998864</v>
+        <v>1.3299999999998882</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -8651,7 +8657,7 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>36.574999999999896</v>
+        <v>35.244999999999898</v>
       </c>
       <c r="C15">
         <v>7781</v>
@@ -8670,7 +8676,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -8678,7 +8684,7 @@
         <v>48</v>
       </c>
       <c r="B16">
-        <v>35.90999999999989</v>
+        <v>34.579999999999892</v>
       </c>
       <c r="C16">
         <v>6938</v>
@@ -8697,15 +8703,15 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998882</v>
+        <v>1.3299999999998899</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>49</v>
       </c>
-      <c r="B17" s="2">
-        <v>35.577499999999894</v>
+      <c r="B17">
+        <v>34.247499999999896</v>
       </c>
       <c r="C17">
         <v>7058</v>
@@ -8724,7 +8730,7 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -8732,7 +8738,7 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>35.244999999999898</v>
+        <v>33.9149999999999</v>
       </c>
       <c r="C18">
         <v>7649</v>
@@ -8751,7 +8757,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>0.66499999999989612</v>
+        <v>0.6649999999998979</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -8759,7 +8765,7 @@
         <v>51</v>
       </c>
       <c r="B19">
-        <v>34.912499999999895</v>
+        <v>33.582499999999897</v>
       </c>
       <c r="C19">
         <v>7582</v>
@@ -8778,7 +8784,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -8786,7 +8792,7 @@
         <v>52</v>
       </c>
       <c r="B20">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C20">
         <v>8346</v>
@@ -8805,7 +8811,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -8813,7 +8819,7 @@
         <v>53</v>
       </c>
       <c r="B21">
-        <v>33.914999999999893</v>
+        <v>32.584999999999894</v>
       </c>
       <c r="C21">
         <v>7498</v>
@@ -8832,7 +8838,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -8840,7 +8846,7 @@
         <v>54</v>
       </c>
       <c r="B22">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C22">
         <v>7124</v>
@@ -8859,7 +8865,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -8867,7 +8873,7 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>32.806666666666594</v>
+        <v>31.476666666666596</v>
       </c>
       <c r="C23">
         <v>7843</v>
@@ -8886,7 +8892,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -8894,7 +8900,7 @@
         <v>56</v>
       </c>
       <c r="B24">
-        <v>32.363333333333294</v>
+        <v>31.033333333333296</v>
       </c>
       <c r="C24">
         <v>7596</v>
@@ -8913,7 +8919,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -8921,7 +8927,7 @@
         <v>57</v>
       </c>
       <c r="B25">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C25">
         <v>8327</v>
@@ -8940,7 +8946,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -8948,7 +8954,7 @@
         <v>58</v>
       </c>
       <c r="B26">
-        <v>31.254999999999896</v>
+        <v>29.924999999999898</v>
       </c>
       <c r="C26">
         <v>7094</v>
@@ -8967,7 +8973,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -8975,7 +8981,7 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C27">
         <v>6637</v>
@@ -8994,7 +9000,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -9002,7 +9008,7 @@
         <v>60</v>
       </c>
       <c r="B28">
-        <v>30.14666666666659</v>
+        <v>28.816666666666592</v>
       </c>
       <c r="C28">
         <v>6932</v>
@@ -9021,7 +9027,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
-        <v>0.88666666666658855</v>
+        <v>0.88666666666659033</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -9029,7 +9035,7 @@
         <v>61</v>
       </c>
       <c r="B29">
-        <v>29.703333333333291</v>
+        <v>28.373333333333292</v>
       </c>
       <c r="C29">
         <v>7286</v>
@@ -9048,7 +9054,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>0.44333333333328895</v>
+        <v>0.44333333333329072</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -9056,7 +9062,7 @@
         <v>62</v>
       </c>
       <c r="B30">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C30">
         <v>8098</v>
@@ -9075,7 +9081,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -9083,7 +9089,7 @@
         <v>63</v>
       </c>
       <c r="B31">
-        <v>28.816666666666592</v>
+        <v>27.486666666666594</v>
       </c>
       <c r="C31">
         <v>8029</v>
@@ -9102,7 +9108,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -9110,7 +9116,7 @@
         <v>64</v>
       </c>
       <c r="B32">
-        <v>28.373333333333292</v>
+        <v>27.043333333333294</v>
       </c>
       <c r="C32">
         <v>7372</v>
@@ -9129,7 +9135,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -9137,7 +9143,7 @@
         <v>65</v>
       </c>
       <c r="B33">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C33">
         <v>7609</v>
@@ -9156,7 +9162,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -9164,7 +9170,7 @@
         <v>66</v>
       </c>
       <c r="B34">
-        <v>27.59749999999989</v>
+        <v>26.267499999999892</v>
       </c>
       <c r="C34">
         <v>7426</v>
@@ -9183,7 +9189,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
-        <v>0.99749999999988859</v>
+        <v>0.99749999999989036</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -9191,7 +9197,7 @@
         <v>67</v>
       </c>
       <c r="B35">
-        <v>27.264999999999894</v>
+        <v>25.934999999999896</v>
       </c>
       <c r="C35">
         <v>7839</v>
@@ -9210,7 +9216,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>0.66499999999989257</v>
+        <v>0.66499999999989434</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -9218,7 +9224,7 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>26.932499999999891</v>
+        <v>25.602499999999893</v>
       </c>
       <c r="C36">
         <v>7850</v>
@@ -9237,7 +9243,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>0.33249999999988944</v>
+        <v>0.33249999999989122</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -9245,7 +9251,7 @@
         <v>69</v>
       </c>
       <c r="B37">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C37">
         <v>8255</v>
@@ -9264,7 +9270,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -9272,7 +9278,7 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <v>25.934999999999896</v>
+        <v>24.604999999999897</v>
       </c>
       <c r="C38">
         <v>8263</v>
@@ -9291,7 +9297,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -9299,7 +9305,7 @@
         <v>71</v>
       </c>
       <c r="B39">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C39">
         <v>7399</v>
@@ -9318,7 +9324,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -9326,7 +9332,7 @@
         <v>72</v>
       </c>
       <c r="B40">
-        <v>24.937499999999893</v>
+        <v>23.607499999999895</v>
       </c>
       <c r="C40">
         <v>6723</v>
@@ -9345,7 +9351,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -9353,7 +9359,7 @@
         <v>73</v>
       </c>
       <c r="B41">
-        <v>24.60499999999989</v>
+        <v>23.274999999999892</v>
       </c>
       <c r="C41">
         <v>7676</v>
@@ -9372,7 +9378,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>0.66499999999988901</v>
+        <v>0.66499999999989079</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -9380,7 +9386,7 @@
         <v>74</v>
       </c>
       <c r="B42">
-        <v>24.272499999999894</v>
+        <v>22.942499999999896</v>
       </c>
       <c r="C42">
         <v>7787</v>
@@ -9399,7 +9405,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -9407,7 +9413,7 @@
         <v>75</v>
       </c>
       <c r="B43">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C43">
         <v>7742</v>
@@ -9426,7 +9432,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -9434,7 +9440,7 @@
         <v>76</v>
       </c>
       <c r="B44">
-        <v>23.496666666666592</v>
+        <v>22.166666666666593</v>
       </c>
       <c r="C44">
         <v>7458</v>
@@ -9453,7 +9459,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -9461,7 +9467,7 @@
         <v>77</v>
       </c>
       <c r="B45">
-        <v>23.053333333333292</v>
+        <v>21.723333333333294</v>
       </c>
       <c r="C45">
         <v>7074</v>
@@ -9480,7 +9486,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -9488,7 +9494,7 @@
         <v>78</v>
       </c>
       <c r="B46">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C46">
         <v>7013</v>
@@ -9507,7 +9513,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -9515,7 +9521,7 @@
         <v>79</v>
       </c>
       <c r="B47">
-        <v>22.166666666666593</v>
+        <v>20.836666666666595</v>
       </c>
       <c r="C47">
         <v>6831</v>
@@ -9534,7 +9540,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -9542,7 +9548,7 @@
         <v>80</v>
       </c>
       <c r="B48">
-        <v>21.723333333333294</v>
+        <v>20.393333333333295</v>
       </c>
       <c r="C48">
         <v>7933</v>
@@ -9561,7 +9567,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -9569,7 +9575,7 @@
         <v>81</v>
       </c>
       <c r="B49">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C49">
         <v>7718</v>
@@ -9588,7 +9594,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -9596,7 +9602,7 @@
         <v>82</v>
       </c>
       <c r="B50">
-        <v>20.836666666666595</v>
+        <v>19.506666666666597</v>
       </c>
       <c r="C50">
         <v>8350</v>
@@ -9615,7 +9621,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
-        <v>0.88666666666659388</v>
+        <v>0.88666666666659566</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -9623,7 +9629,7 @@
         <v>83</v>
       </c>
       <c r="B51">
-        <v>20.393333333333295</v>
+        <v>19.063333333333297</v>
       </c>
       <c r="C51">
         <v>7372</v>
@@ -9642,7 +9648,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
-        <v>0.44333333333329428</v>
+        <v>0.44333333333329605</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -9650,7 +9656,7 @@
         <v>84</v>
       </c>
       <c r="B52">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C52">
         <v>7723</v>
@@ -9669,15 +9675,15 @@
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>85</v>
       </c>
-      <c r="B53" s="2">
-        <v>19.683999999999891</v>
+      <c r="B53">
+        <v>18.353999999999893</v>
       </c>
       <c r="C53">
         <v>6884</v>
@@ -9696,7 +9702,7 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="3"/>
-        <v>1.0639999999998899</v>
+        <v>1.0639999999998917</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -9704,7 +9710,7 @@
         <v>86</v>
       </c>
       <c r="B54">
-        <v>19.417999999999893</v>
+        <v>18.087999999999894</v>
       </c>
       <c r="C54">
         <v>6929</v>
@@ -9723,7 +9729,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>0.79799999999989168</v>
+        <v>0.79799999999989346</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -9731,7 +9737,7 @@
         <v>87</v>
       </c>
       <c r="B55">
-        <v>19.151999999999894</v>
+        <v>17.821999999999896</v>
       </c>
       <c r="C55">
         <v>7350</v>
@@ -9750,15 +9756,15 @@
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>0.53199999999989345</v>
+        <v>0.53199999999989522</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>88</v>
       </c>
-      <c r="B56" s="2">
-        <v>18.885999999999896</v>
+      <c r="B56">
+        <v>17.555999999999898</v>
       </c>
       <c r="C56">
         <v>7932</v>
@@ -9777,7 +9783,7 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" si="3"/>
-        <v>0.26599999999989521</v>
+        <v>0.26599999999989699</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -9785,7 +9791,7 @@
         <v>89</v>
       </c>
       <c r="B57">
-        <v>18.619999999999891</v>
+        <v>17.289999999999893</v>
       </c>
       <c r="C57">
         <v>7891</v>
@@ -9804,7 +9810,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -9812,7 +9818,7 @@
         <v>90</v>
       </c>
       <c r="B58">
-        <v>18.176666666666591</v>
+        <v>16.957499999999893</v>
       </c>
       <c r="C58">
         <v>7928</v>
@@ -9831,7 +9837,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.99749999999989214</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -9839,7 +9845,7 @@
         <v>91</v>
       </c>
       <c r="B59">
-        <v>17.733333333333292</v>
+        <v>16.624999999999893</v>
       </c>
       <c r="C59">
         <v>7764</v>
@@ -9858,7 +9864,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -9866,7 +9872,7 @@
         <v>92</v>
       </c>
       <c r="B60">
-        <v>17.289999999999893</v>
+        <v>16.292499999999894</v>
       </c>
       <c r="C60">
         <v>7022</v>
@@ -9885,7 +9891,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>0.33249999999989299</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -9893,7 +9899,7 @@
         <v>93</v>
       </c>
       <c r="B61">
-        <v>15.959</v>
+        <v>15.959999999999894</v>
       </c>
       <c r="C61">
         <v>7571</v>
@@ -9912,7 +9918,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="3"/>
-        <v>1.3289999999999988</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -10486,7 +10492,7 @@
       <c r="A83" s="2">
         <v>115</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>9.0883333333332956</v>
       </c>
       <c r="C83">
@@ -10594,7 +10600,7 @@
       <c r="A87" s="2">
         <v>119</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>8.2016666666665969</v>
       </c>
       <c r="C87">
@@ -11269,7 +11275,7 @@
       <c r="A112" s="2">
         <v>144</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>2.5390909090908949</v>
       </c>
       <c r="C112">
@@ -11989,7 +11995,7 @@
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D131"/>
+      <selection activeCell="B1" sqref="B1:B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12002,11 +12008,11 @@
         <v>33</v>
       </c>
       <c r="B1">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C1" s="1">
         <f t="shared" ref="C1:C32" si="0">B1+6</f>
-        <v>49.889999999999894</v>
+        <v>48.559999999999896</v>
       </c>
       <c r="D1" s="1">
         <v>8752</v>
@@ -12025,7 +12031,7 @@
       </c>
       <c r="J1">
         <f>MOD(B1,1.33)</f>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -12033,11 +12039,11 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>43.446666666666594</v>
+        <v>42.116666666666596</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" si="0"/>
-        <v>49.446666666666594</v>
+        <v>48.116666666666596</v>
       </c>
       <c r="D2" s="1">
         <v>8691</v>
@@ -12056,19 +12062,19 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J65" si="3">MOD(B2,1.33)</f>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>35</v>
       </c>
-      <c r="B3" s="2">
-        <v>43.003333333333195</v>
+      <c r="B3">
+        <v>41.673333333333197</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
-        <v>49.003333333333195</v>
+        <v>47.673333333333197</v>
       </c>
       <c r="D3" s="1">
         <v>9005</v>
@@ -12087,7 +12093,7 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -12095,11 +12101,11 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>48.559999999999896</v>
+        <v>47.229999999999897</v>
       </c>
       <c r="D4" s="1">
         <v>9075</v>
@@ -12118,7 +12124,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -12126,11 +12132,11 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>41.894999999999889</v>
+        <v>40.564999999999891</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>47.894999999999889</v>
+        <v>46.564999999999891</v>
       </c>
       <c r="D5" s="1">
         <v>8905</v>
@@ -12149,7 +12155,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.66499999999988724</v>
+        <v>0.66499999999988901</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -12157,11 +12163,11 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>47.229999999999897</v>
+        <v>45.899999999999899</v>
       </c>
       <c r="D6" s="1">
         <v>8940</v>
@@ -12176,7 +12182,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -12184,11 +12190,11 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>40.786666666666598</v>
+        <v>39.456666666666599</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>46.786666666666598</v>
+        <v>45.456666666666599</v>
       </c>
       <c r="D7" s="1">
         <v>8359</v>
@@ -12203,7 +12209,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>0.88666666666659566</v>
+        <v>0.88666666666659744</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -12211,11 +12217,11 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>40.343333333333199</v>
+        <v>39.0133333333332</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>46.343333333333199</v>
+        <v>45.0133333333332</v>
       </c>
       <c r="D8" s="1">
         <v>8720</v>
@@ -12230,7 +12236,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.44333333333319658</v>
+        <v>0.44333333333319835</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -12238,11 +12244,11 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>45.899999999999892</v>
+        <v>44.569999999999894</v>
       </c>
       <c r="D9" s="1">
         <v>8645</v>
@@ -12257,7 +12263,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -12265,11 +12271,11 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>39.234999999999893</v>
+        <v>37.904999999999895</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>45.234999999999893</v>
+        <v>43.904999999999895</v>
       </c>
       <c r="D10" s="1">
         <v>8984</v>
@@ -12284,7 +12290,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -12292,11 +12298,11 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>44.569999999999894</v>
+        <v>43.239999999999895</v>
       </c>
       <c r="D11" s="1">
         <v>8792</v>
@@ -12311,7 +12317,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -12319,11 +12325,11 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>38.126666666666594</v>
+        <v>36.796666666666596</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>44.126666666666594</v>
+        <v>42.796666666666596</v>
       </c>
       <c r="D12" s="1">
         <v>8707</v>
@@ -12338,19 +12344,19 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>45</v>
       </c>
-      <c r="B13" s="2">
-        <v>37.683333333333195</v>
+      <c r="B13">
+        <v>36.353333333333197</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>43.683333333333195</v>
+        <v>42.353333333333197</v>
       </c>
       <c r="D13" s="1">
         <v>9426</v>
@@ -12365,7 +12371,7 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -12373,11 +12379,11 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>43.239999999999888</v>
+        <v>41.90999999999989</v>
       </c>
       <c r="D14" s="1">
         <v>9480</v>
@@ -12392,7 +12398,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>1.3299999999998864</v>
+        <v>1.3299999999998882</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -12400,11 +12406,11 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>36.574999999999896</v>
+        <v>35.244999999999898</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>42.574999999999896</v>
+        <v>41.244999999999898</v>
       </c>
       <c r="D15" s="1">
         <v>9124</v>
@@ -12419,7 +12425,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -12427,11 +12433,11 @@
         <v>48</v>
       </c>
       <c r="B16">
-        <v>35.90999999999989</v>
+        <v>34.579999999999892</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>41.90999999999989</v>
+        <v>40.579999999999892</v>
       </c>
       <c r="D16" s="1">
         <v>8787</v>
@@ -12446,19 +12452,19 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998882</v>
+        <v>1.3299999999998899</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>49</v>
       </c>
-      <c r="B17" s="2">
-        <v>35.577499999999894</v>
+      <c r="B17">
+        <v>34.247499999999896</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
-        <v>41.577499999999894</v>
+        <v>40.247499999999896</v>
       </c>
       <c r="D17" s="1">
         <v>8506</v>
@@ -12473,7 +12479,7 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -12481,11 +12487,11 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>35.244999999999898</v>
+        <v>33.9149999999999</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>41.244999999999898</v>
+        <v>39.9149999999999</v>
       </c>
       <c r="D18" s="1">
         <v>8828</v>
@@ -12500,19 +12506,19 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>0.66499999999989612</v>
+        <v>0.6649999999998979</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>51</v>
       </c>
-      <c r="B19" s="2">
-        <v>34.912499999999895</v>
+      <c r="B19">
+        <v>33.582499999999897</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>40.912499999999895</v>
+        <v>39.582499999999897</v>
       </c>
       <c r="D19" s="1">
         <v>9520</v>
@@ -12527,7 +12533,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -12535,11 +12541,11 @@
         <v>52</v>
       </c>
       <c r="B20">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>40.579999999999892</v>
+        <v>39.249999999999893</v>
       </c>
       <c r="D20" s="1">
         <v>8686</v>
@@ -12554,7 +12560,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -12562,11 +12568,11 @@
         <v>53</v>
       </c>
       <c r="B21">
-        <v>33.914999999999893</v>
+        <v>32.584999999999894</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>39.914999999999893</v>
+        <v>38.584999999999894</v>
       </c>
       <c r="D21" s="1">
         <v>9155</v>
@@ -12581,7 +12587,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -12589,11 +12595,11 @@
         <v>54</v>
       </c>
       <c r="B22">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>39.249999999999893</v>
+        <v>37.919999999999895</v>
       </c>
       <c r="D22" s="1">
         <v>7870</v>
@@ -12608,7 +12614,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -12616,11 +12622,11 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>32.806666666666594</v>
+        <v>31.476666666666596</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>38.806666666666594</v>
+        <v>37.476666666666596</v>
       </c>
       <c r="D23" s="1">
         <v>8177</v>
@@ -12635,7 +12641,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -12643,11 +12649,11 @@
         <v>56</v>
       </c>
       <c r="B24">
-        <v>32.363333333333294</v>
+        <v>31.033333333333296</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>38.363333333333294</v>
+        <v>37.033333333333296</v>
       </c>
       <c r="D24" s="1">
         <v>8588</v>
@@ -12662,7 +12668,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -12670,11 +12676,11 @@
         <v>57</v>
       </c>
       <c r="B25">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>37.919999999999895</v>
+        <v>36.589999999999897</v>
       </c>
       <c r="D25" s="1">
         <v>9074</v>
@@ -12689,7 +12695,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -12697,11 +12703,11 @@
         <v>58</v>
       </c>
       <c r="B26">
-        <v>31.254999999999896</v>
+        <v>29.924999999999898</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>37.254999999999896</v>
+        <v>35.924999999999898</v>
       </c>
       <c r="D26" s="1">
         <v>7980</v>
@@ -12716,7 +12722,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -12724,11 +12730,11 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>36.589999999999897</v>
+        <v>35.259999999999899</v>
       </c>
       <c r="D27" s="1">
         <v>8450</v>
@@ -12743,19 +12749,19 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>60</v>
       </c>
-      <c r="B28" s="2">
-        <v>30.14666666666659</v>
+      <c r="B28">
+        <v>28.816666666666592</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
-        <v>36.14666666666659</v>
+        <v>34.816666666666592</v>
       </c>
       <c r="D28" s="1">
         <v>7927</v>
@@ -12770,7 +12776,7 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666658855</v>
+        <v>0.88666666666659033</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -12778,11 +12784,11 @@
         <v>61</v>
       </c>
       <c r="B29">
-        <v>29.703333333333291</v>
+        <v>28.373333333333292</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>35.703333333333291</v>
+        <v>34.373333333333292</v>
       </c>
       <c r="D29" s="1">
         <v>9089</v>
@@ -12797,7 +12803,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>0.44333333333328895</v>
+        <v>0.44333333333329072</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -12805,11 +12811,11 @@
         <v>62</v>
       </c>
       <c r="B30">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>35.259999999999891</v>
+        <v>33.929999999999893</v>
       </c>
       <c r="D30" s="1">
         <v>9634</v>
@@ -12824,7 +12830,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -12832,11 +12838,11 @@
         <v>63</v>
       </c>
       <c r="B31">
-        <v>28.816666666666592</v>
+        <v>27.486666666666594</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>34.816666666666592</v>
+        <v>33.486666666666594</v>
       </c>
       <c r="D31" s="1">
         <v>9161</v>
@@ -12851,7 +12857,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -12859,11 +12865,11 @@
         <v>64</v>
       </c>
       <c r="B32">
-        <v>28.373333333333292</v>
+        <v>27.043333333333294</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>34.373333333333292</v>
+        <v>33.043333333333294</v>
       </c>
       <c r="D32" s="1">
         <v>8533</v>
@@ -12878,7 +12884,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -12886,11 +12892,11 @@
         <v>65</v>
       </c>
       <c r="B33">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ref="C33:C96" si="4">B33+6</f>
-        <v>33.929999999999893</v>
+        <v>32.599999999999895</v>
       </c>
       <c r="D33" s="1">
         <v>8541</v>
@@ -12905,19 +12911,19 @@
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>66</v>
       </c>
-      <c r="B34" s="2">
-        <v>27.59749999999989</v>
+      <c r="B34">
+        <v>26.267499999999892</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="4"/>
-        <v>33.59749999999989</v>
+        <v>32.267499999999892</v>
       </c>
       <c r="D34" s="1">
         <v>7960</v>
@@ -12932,7 +12938,7 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
-        <v>0.99749999999988859</v>
+        <v>0.99749999999989036</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -12940,11 +12946,11 @@
         <v>67</v>
       </c>
       <c r="B35">
-        <v>27.264999999999894</v>
+        <v>25.934999999999896</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
-        <v>33.264999999999894</v>
+        <v>31.934999999999896</v>
       </c>
       <c r="D35" s="1">
         <v>7950</v>
@@ -12959,7 +12965,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>0.66499999999989257</v>
+        <v>0.66499999999989434</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -12967,11 +12973,11 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>26.932499999999891</v>
+        <v>25.602499999999893</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
-        <v>32.932499999999891</v>
+        <v>31.602499999999893</v>
       </c>
       <c r="D36" s="1">
         <v>9504</v>
@@ -12986,7 +12992,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>0.33249999999988944</v>
+        <v>0.33249999999989122</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -12994,11 +13000,11 @@
         <v>69</v>
       </c>
       <c r="B37">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
-        <v>32.599999999999895</v>
+        <v>31.269999999999897</v>
       </c>
       <c r="D37" s="1">
         <v>9572</v>
@@ -13013,7 +13019,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -13021,11 +13027,11 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <v>25.934999999999896</v>
+        <v>24.604999999999897</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
-        <v>31.934999999999896</v>
+        <v>30.604999999999897</v>
       </c>
       <c r="D38" s="1">
         <v>8666</v>
@@ -13040,7 +13046,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -13048,11 +13054,11 @@
         <v>71</v>
       </c>
       <c r="B39">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="4"/>
-        <v>31.269999999999897</v>
+        <v>29.939999999999898</v>
       </c>
       <c r="D39" s="1">
         <v>8782</v>
@@ -13067,19 +13073,19 @@
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>72</v>
       </c>
-      <c r="B40" s="2">
-        <v>24.937499999999893</v>
+      <c r="B40">
+        <v>23.607499999999895</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" si="4"/>
-        <v>30.937499999999893</v>
+        <v>29.607499999999895</v>
       </c>
       <c r="D40" s="1">
         <v>8588</v>
@@ -13094,7 +13100,7 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -13102,11 +13108,11 @@
         <v>73</v>
       </c>
       <c r="B41">
-        <v>24.60499999999989</v>
+        <v>23.274999999999892</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="4"/>
-        <v>30.60499999999989</v>
+        <v>29.274999999999892</v>
       </c>
       <c r="D41" s="1">
         <v>8912</v>
@@ -13121,7 +13127,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>0.66499999999988901</v>
+        <v>0.66499999999989079</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -13129,11 +13135,11 @@
         <v>74</v>
       </c>
       <c r="B42">
-        <v>24.272499999999894</v>
+        <v>22.942499999999896</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="4"/>
-        <v>30.272499999999894</v>
+        <v>28.942499999999896</v>
       </c>
       <c r="D42" s="1">
         <v>9080</v>
@@ -13148,7 +13154,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -13156,11 +13162,11 @@
         <v>75</v>
       </c>
       <c r="B43">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="4"/>
-        <v>29.939999999999891</v>
+        <v>28.609999999999893</v>
       </c>
       <c r="D43" s="1">
         <v>9337</v>
@@ -13175,7 +13181,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -13183,11 +13189,11 @@
         <v>76</v>
       </c>
       <c r="B44">
-        <v>23.496666666666592</v>
+        <v>22.166666666666593</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="4"/>
-        <v>29.496666666666592</v>
+        <v>28.166666666666593</v>
       </c>
       <c r="D44" s="1">
         <v>9082</v>
@@ -13202,7 +13208,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -13210,11 +13216,11 @@
         <v>77</v>
       </c>
       <c r="B45">
-        <v>23.053333333333292</v>
+        <v>21.723333333333294</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="4"/>
-        <v>29.053333333333292</v>
+        <v>27.723333333333294</v>
       </c>
       <c r="D45" s="1">
         <v>8812</v>
@@ -13229,7 +13235,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -13237,11 +13243,11 @@
         <v>78</v>
       </c>
       <c r="B46">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="4"/>
-        <v>28.609999999999893</v>
+        <v>27.279999999999895</v>
       </c>
       <c r="D46" s="1">
         <v>8180</v>
@@ -13256,7 +13262,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -13264,11 +13270,11 @@
         <v>79</v>
       </c>
       <c r="B47">
-        <v>22.166666666666593</v>
+        <v>20.836666666666595</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="4"/>
-        <v>28.166666666666593</v>
+        <v>26.836666666666595</v>
       </c>
       <c r="D47" s="1">
         <v>8394</v>
@@ -13283,7 +13289,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -13291,11 +13297,11 @@
         <v>80</v>
       </c>
       <c r="B48">
-        <v>21.723333333333294</v>
+        <v>20.393333333333295</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="4"/>
-        <v>27.723333333333294</v>
+        <v>26.393333333333295</v>
       </c>
       <c r="D48" s="1">
         <v>9299</v>
@@ -13310,7 +13316,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -13318,11 +13324,11 @@
         <v>81</v>
       </c>
       <c r="B49">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="4"/>
-        <v>27.279999999999895</v>
+        <v>25.949999999999896</v>
       </c>
       <c r="D49" s="1">
         <v>9313</v>
@@ -13337,19 +13343,19 @@
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>82</v>
       </c>
-      <c r="B50" s="2">
-        <v>20.836666666666595</v>
+      <c r="B50">
+        <v>19.506666666666597</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" si="4"/>
-        <v>26.836666666666595</v>
+        <v>25.506666666666597</v>
       </c>
       <c r="D50" s="1">
         <v>9520</v>
@@ -13364,7 +13370,7 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666659388</v>
+        <v>0.88666666666659566</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -13372,11 +13378,11 @@
         <v>83</v>
       </c>
       <c r="B51">
-        <v>20.393333333333295</v>
+        <v>19.063333333333297</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="4"/>
-        <v>26.393333333333295</v>
+        <v>25.063333333333297</v>
       </c>
       <c r="D51" s="1">
         <v>9521</v>
@@ -13391,7 +13397,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
-        <v>0.44333333333329428</v>
+        <v>0.44333333333329605</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -13399,11 +13405,11 @@
         <v>84</v>
       </c>
       <c r="B52">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="4"/>
-        <v>25.949999999999896</v>
+        <v>24.619999999999898</v>
       </c>
       <c r="D52" s="1">
         <v>8740</v>
@@ -13418,19 +13424,19 @@
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>85</v>
       </c>
-      <c r="B53" s="2">
-        <v>19.683999999999891</v>
+      <c r="B53">
+        <v>18.353999999999893</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" si="4"/>
-        <v>25.683999999999891</v>
+        <v>24.353999999999893</v>
       </c>
       <c r="D53" s="1">
         <v>8458</v>
@@ -13445,7 +13451,7 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="3"/>
-        <v>1.0639999999998899</v>
+        <v>1.0639999999998917</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -13453,11 +13459,11 @@
         <v>86</v>
       </c>
       <c r="B54">
-        <v>19.417999999999893</v>
+        <v>18.087999999999894</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="4"/>
-        <v>25.417999999999893</v>
+        <v>24.087999999999894</v>
       </c>
       <c r="D54" s="1">
         <v>8169</v>
@@ -13472,7 +13478,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>0.79799999999989168</v>
+        <v>0.79799999999989346</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -13480,11 +13486,11 @@
         <v>87</v>
       </c>
       <c r="B55">
-        <v>19.151999999999894</v>
+        <v>17.821999999999896</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="4"/>
-        <v>25.151999999999894</v>
+        <v>23.821999999999896</v>
       </c>
       <c r="D55" s="1">
         <v>8419</v>
@@ -13499,7 +13505,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>0.53199999999989345</v>
+        <v>0.53199999999989522</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -13507,11 +13513,11 @@
         <v>88</v>
       </c>
       <c r="B56">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="4"/>
-        <v>24.885999999999896</v>
+        <v>23.555999999999898</v>
       </c>
       <c r="D56" s="1">
         <v>9055</v>
@@ -13526,7 +13532,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>0.26599999999989521</v>
+        <v>0.26599999999989699</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -13534,11 +13540,11 @@
         <v>89</v>
       </c>
       <c r="B57">
-        <v>18.619999999999891</v>
+        <v>17.289999999999893</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="4"/>
-        <v>24.619999999999891</v>
+        <v>23.289999999999893</v>
       </c>
       <c r="D57" s="1">
         <v>9230</v>
@@ -13553,7 +13559,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -13561,11 +13567,11 @@
         <v>90</v>
       </c>
       <c r="B58">
-        <v>18.176666666666591</v>
+        <v>16.957499999999893</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="4"/>
-        <v>24.176666666666591</v>
+        <v>22.957499999999893</v>
       </c>
       <c r="D58" s="1">
         <v>8784</v>
@@ -13580,7 +13586,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.99749999999989214</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -13588,11 +13594,11 @@
         <v>91</v>
       </c>
       <c r="B59">
-        <v>17.733333333333292</v>
+        <v>16.624999999999893</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="4"/>
-        <v>23.733333333333292</v>
+        <v>22.624999999999893</v>
       </c>
       <c r="D59" s="1">
         <v>9246</v>
@@ -13607,7 +13613,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -13615,11 +13621,11 @@
         <v>92</v>
       </c>
       <c r="B60">
-        <v>17.289999999999893</v>
+        <v>16.292499999999894</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="4"/>
-        <v>23.289999999999893</v>
+        <v>22.292499999999894</v>
       </c>
       <c r="D60" s="1">
         <v>8553</v>
@@ -13634,19 +13640,19 @@
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>0.33249999999989299</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>93</v>
       </c>
-      <c r="B61" s="2">
-        <v>15.959</v>
+      <c r="B61">
+        <v>15.959999999999894</v>
       </c>
       <c r="C61" s="3">
         <f t="shared" si="4"/>
-        <v>21.959</v>
+        <v>21.959999999999894</v>
       </c>
       <c r="D61" s="1">
         <v>7909</v>
@@ -13661,7 +13667,7 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" si="3"/>
-        <v>1.3289999999999988</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -13857,7 +13863,7 @@
       <c r="A69" s="3">
         <v>101</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>13.033999999999892</v>
       </c>
       <c r="C69" s="3">
@@ -13992,7 +13998,7 @@
       <c r="A74" s="3">
         <v>106</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>11.703999999999894</v>
       </c>
       <c r="C74" s="3">
@@ -14235,7 +14241,7 @@
       <c r="A83" s="3">
         <v>115</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>9.0883333333332956</v>
       </c>
       <c r="C83" s="3">
@@ -14667,7 +14673,7 @@
       <c r="A99" s="3">
         <v>131</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>5.1299999999999955</v>
       </c>
       <c r="C99" s="3">
@@ -14802,7 +14808,7 @@
       <c r="A104" s="3">
         <v>136</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>4.1799999999999926</v>
       </c>
       <c r="C104" s="3">
@@ -15504,7 +15510,7 @@
       <c r="A130" s="3">
         <v>162</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>0.14777777777769785</v>
       </c>
       <c r="C130" s="3">
@@ -15564,15 +15570,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
@@ -15587,7 +15593,7 @@
       <c r="H1" s="24"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -15608,7 +15614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>163</v>
       </c>
@@ -15639,8 +15645,12 @@
         <f t="shared" ref="I3:I34" si="0">D3/H3</f>
         <v>1.0353744101237679</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <f>B3-F3</f>
+        <v>-0.14777777777769785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>154</v>
       </c>
@@ -15671,8 +15681,12 @@
         <f t="shared" si="0"/>
         <v>1.2360083869478595</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <f t="shared" ref="J4:J35" si="3">B4-F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>144</v>
       </c>
@@ -15703,8 +15717,12 @@
         <f t="shared" si="0"/>
         <v>1.3134002943880807</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>137</v>
       </c>
@@ -15735,8 +15753,12 @@
         <f t="shared" si="0"/>
         <v>1.4265775154829756</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>-0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>130</v>
       </c>
@@ -15767,8 +15789,12 @@
         <f t="shared" si="0"/>
         <v>1.0985390475772252</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>125</v>
       </c>
@@ -15799,8 +15825,12 @@
         <f t="shared" si="0"/>
         <v>1.0284580762762709</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>119</v>
       </c>
@@ -15831,8 +15861,12 @@
         <f t="shared" si="0"/>
         <v>1.2158414196101535</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>115</v>
       </c>
@@ -15863,8 +15897,12 @@
         <f t="shared" si="0"/>
         <v>1.3108093650663315</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>110</v>
       </c>
@@ -15895,8 +15933,12 @@
         <f t="shared" si="0"/>
         <v>1.1087099497085688</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>105</v>
       </c>
@@ -15927,8 +15969,12 @@
         <f t="shared" si="0"/>
         <v>1.1878333412073245</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.26599999999999824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>100</v>
       </c>
@@ -15959,8 +16005,12 @@
         <f t="shared" si="0"/>
         <v>1.519881704425436</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.26599999999999824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>97</v>
       </c>
@@ -15991,13 +16041,17 @@
         <f t="shared" si="0"/>
         <v>1.3807466490207423</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>92</v>
       </c>
-      <c r="B15" s="5">
-        <v>17.289999999999893</v>
+      <c r="B15">
+        <v>16.292499999999894</v>
       </c>
       <c r="C15" s="5">
         <v>-0.28473133916368754</v>
@@ -16023,13 +16077,17 @@
         <f t="shared" si="0"/>
         <v>1.2145181775123426</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.33349999999989421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>88</v>
       </c>
       <c r="B16" s="8">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="C16" s="8">
         <v>0.20185798057382145</v>
@@ -16042,7 +16100,7 @@
         <v>89</v>
       </c>
       <c r="F16" s="8">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="G16" s="5">
         <v>0.17914262656640748</v>
@@ -16055,13 +16113,17 @@
         <f t="shared" si="0"/>
         <v>1.0016378835362083</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>84</v>
       </c>
       <c r="B17" s="5">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C17" s="5">
         <v>-0.19855135607190708</v>
@@ -16074,7 +16136,7 @@
         <v>85</v>
       </c>
       <c r="F17" s="8">
-        <v>19.683999999999891</v>
+        <v>18.353999999999893</v>
       </c>
       <c r="G17" s="8">
         <v>-0.22061195862571106</v>
@@ -16087,13 +16149,17 @@
         <f t="shared" si="0"/>
         <v>0.96865016382520031</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.26600000000000534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>81</v>
       </c>
       <c r="B18" s="5">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C18" s="5">
         <v>0.21559134045248238</v>
@@ -16106,7 +16172,7 @@
         <v>82</v>
       </c>
       <c r="F18" s="8">
-        <v>20.836666666666595</v>
+        <v>19.506666666666597</v>
       </c>
       <c r="G18" s="8">
         <v>0.20693424122103196</v>
@@ -16119,13 +16185,17 @@
         <f t="shared" si="0"/>
         <v>1.1534791437804515</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.44333333333329961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>78</v>
       </c>
       <c r="B19" s="5">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C19" s="5">
         <v>-0.24000342396254418</v>
@@ -16138,7 +16208,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="5">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="G19" s="5">
         <v>-0.18804018625049115</v>
@@ -16151,13 +16221,17 @@
         <f t="shared" si="0"/>
         <v>1.0788023219501652</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>75</v>
       </c>
       <c r="B20" s="5">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C20" s="5">
         <v>0.16342977173903631</v>
@@ -16170,7 +16244,7 @@
         <v>75</v>
       </c>
       <c r="F20" s="5">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="G20" s="5">
         <v>0.18592378054213585</v>
@@ -16183,13 +16257,17 @@
         <f t="shared" si="0"/>
         <v>1.2131483196575115</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>71</v>
       </c>
       <c r="B21" s="5">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C21" s="5">
         <v>-0.26772213197452033</v>
@@ -16202,7 +16280,7 @@
         <v>72</v>
       </c>
       <c r="F21" s="8">
-        <v>24.937499999999893</v>
+        <v>23.607499999999895</v>
       </c>
       <c r="G21" s="8">
         <v>-0.16947538766120201</v>
@@ -16215,13 +16293,17 @@
         <f t="shared" si="0"/>
         <v>1.7785827339321467</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.33250000000000313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>69</v>
       </c>
       <c r="B22" s="5">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C22" s="5">
         <v>0.20324391597442026</v>
@@ -16234,7 +16316,7 @@
         <v>69</v>
       </c>
       <c r="F22" s="5">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="G22" s="5">
         <v>9.5323116768060046E-2</v>
@@ -16247,13 +16329,17 @@
         <f t="shared" si="0"/>
         <v>1.3088358506969409</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>65</v>
       </c>
       <c r="B23" s="5">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C23" s="5">
         <v>-0.15861121770919595</v>
@@ -16266,7 +16352,7 @@
         <v>66</v>
       </c>
       <c r="F23" s="8">
-        <v>27.59749999999989</v>
+        <v>26.267499999999892</v>
       </c>
       <c r="G23" s="8">
         <v>-0.18114786581614428</v>
@@ -16279,13 +16365,17 @@
         <f t="shared" si="0"/>
         <v>0.98238736157829942</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0.33250000000000313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>62</v>
       </c>
       <c r="B24" s="5">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C24" s="5">
         <v>0.1782970787636417</v>
@@ -16298,7 +16388,7 @@
         <v>62</v>
       </c>
       <c r="F24" s="5">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="G24" s="5">
         <v>0.16180065902192181</v>
@@ -16311,13 +16401,17 @@
         <f t="shared" si="0"/>
         <v>1.0457747939676283</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>59</v>
       </c>
       <c r="B25" s="5">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C25" s="5">
         <v>-0.20371711529232084</v>
@@ -16330,7 +16424,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="8">
-        <v>30.14666666666659</v>
+        <v>28.816666666666592</v>
       </c>
       <c r="G25" s="8">
         <v>-0.20349232399846237</v>
@@ -16343,13 +16437,17 @@
         <f t="shared" si="0"/>
         <v>1.0629641522459432</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0.44333333333330671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>57</v>
       </c>
       <c r="B26" s="5">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C26" s="5">
         <v>0.13671901674567746</v>
@@ -16362,7 +16460,7 @@
         <v>57</v>
       </c>
       <c r="F26" s="5">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="G26" s="5">
         <v>0.11677824328143015</v>
@@ -16375,13 +16473,17 @@
         <f t="shared" si="0"/>
         <v>0.92639337983352399</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>54</v>
       </c>
       <c r="B27" s="5">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C27" s="5">
         <v>-0.16327300042030105</v>
@@ -16394,7 +16496,7 @@
         <v>54</v>
       </c>
       <c r="F27" s="5">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="G27" s="5">
         <v>-0.20704965067425429</v>
@@ -16407,13 +16509,17 @@
         <f t="shared" si="0"/>
         <v>0.64208946105887876</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>52</v>
       </c>
       <c r="B28" s="5">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C28" s="5">
         <v>7.170604704486061E-2</v>
@@ -16426,7 +16532,7 @@
         <v>51</v>
       </c>
       <c r="F28" s="8">
-        <v>34.912499999999895</v>
+        <v>33.582499999999897</v>
       </c>
       <c r="G28" s="8">
         <v>0.15891033109784086</v>
@@ -16439,13 +16545,17 @@
         <f t="shared" si="0"/>
         <v>0.99781737428438633</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>-0.33250000000000313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>49</v>
       </c>
       <c r="B29" s="8">
-        <v>35.577499999999894</v>
+        <v>34.247499999999896</v>
       </c>
       <c r="C29" s="8">
         <v>-0.19073972017762289</v>
@@ -16458,7 +16568,7 @@
         <v>48</v>
       </c>
       <c r="F29" s="8">
-        <v>35.577499999999894</v>
+        <v>34.247499999999896</v>
       </c>
       <c r="G29" s="5">
         <v>-0.10410950999352522</v>
@@ -16471,13 +16581,17 @@
         <f t="shared" si="0"/>
         <v>2.822520294427707</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>46</v>
       </c>
       <c r="B30" s="5">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C30" s="5">
         <v>0.16695760730419693</v>
@@ -16490,7 +16604,7 @@
         <v>45</v>
       </c>
       <c r="F30" s="8">
-        <v>37.683333333333195</v>
+        <v>36.353333333333197</v>
       </c>
       <c r="G30" s="8">
         <v>2.2620252831562406E-2</v>
@@ -16503,13 +16617,17 @@
         <f t="shared" si="0"/>
         <v>2.6464426669574395</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>-0.44333333333330671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C31" s="5">
         <v>-0.12812063889602218</v>
@@ -16522,7 +16640,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="5">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="G31" s="5">
         <v>-8.8879705162791006E-2</v>
@@ -16535,13 +16653,17 @@
         <f t="shared" si="0"/>
         <v>2.2059879350601683</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>41</v>
       </c>
       <c r="B32" s="5">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C32" s="5">
         <v>0.1188278506652201</v>
@@ -16554,7 +16676,7 @@
         <v>41</v>
       </c>
       <c r="F32" s="5">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="G32" s="5">
         <v>2.30649186660364E-2</v>
@@ -16567,13 +16689,17 @@
         <f t="shared" si="0"/>
         <v>1.8110306122756714</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>38</v>
       </c>
       <c r="B33" s="5">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C33" s="5">
         <v>-9.1960324353125983E-2</v>
@@ -16586,7 +16712,7 @@
         <v>38</v>
       </c>
       <c r="F33" s="5">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="G33" s="5">
         <v>-9.3326363507530929E-2</v>
@@ -16599,13 +16725,17 @@
         <f t="shared" si="0"/>
         <v>0.78583053049345708</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>36</v>
       </c>
       <c r="B34" s="5">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C34" s="5">
         <v>4.9909063017261161E-2</v>
@@ -16618,7 +16748,7 @@
         <v>35</v>
       </c>
       <c r="F34" s="8">
-        <v>43.003333333333195</v>
+        <v>41.673333333333197</v>
       </c>
       <c r="G34" s="8">
         <v>8.72079652889097E-2</v>
@@ -16631,13 +16761,17 @@
         <f t="shared" si="0"/>
         <v>0.76250308691426416</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>-0.44333333333329961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C35" s="5">
         <v>-0.10292181343058929</v>
@@ -16649,7 +16783,7 @@
         <v>33</v>
       </c>
       <c r="F35" s="10">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="G35" s="10">
         <v>-0.11322515960024206</v>
@@ -16660,8 +16794,12 @@
       <c r="I35" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -16671,7 +16809,7 @@
         <v>1.2979419997967521</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>49</v>
       </c>
@@ -16691,8 +16829,15 @@
       <c r="G40" s="2">
         <v>8.72079652889097E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I40" s="8">
+        <v>18.885999999999896</v>
+      </c>
+      <c r="J40">
+        <f>I40-1.33</f>
+        <v>17.555999999999898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>85</v>
       </c>
@@ -16712,8 +16857,15 @@
       <c r="G41" s="2">
         <v>2.2620252831562406E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I41" s="8">
+        <v>19.683999999999891</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:J59" si="4">I41-1.33</f>
+        <v>18.353999999999893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>88</v>
       </c>
@@ -16733,8 +16885,15 @@
       <c r="G42" s="2">
         <v>0.15891033109784086</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I42" s="8">
+        <v>20.836666666666595</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>19.506666666666597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>115</v>
       </c>
@@ -16754,8 +16913,15 @@
       <c r="G43" s="2">
         <v>-0.20349232399846237</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I43" s="5">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>21.279999999999895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>119</v>
       </c>
@@ -16775,8 +16941,15 @@
       <c r="G44" s="2">
         <v>-0.18114786581614428</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I44" s="5">
+        <v>23.939999999999891</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>22.609999999999893</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>144</v>
       </c>
@@ -16796,8 +16969,15 @@
       <c r="G45" s="2">
         <v>-0.16947538766120201</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I45" s="8">
+        <v>24.937499999999893</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>23.607499999999895</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E46" s="3">
         <v>82</v>
       </c>
@@ -16807,8 +16987,15 @@
       <c r="G46" s="2">
         <v>0.20693424122103196</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I46" s="5">
+        <v>26.599999999999895</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>25.269999999999897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E47" s="3">
         <v>85</v>
       </c>
@@ -16818,8 +17005,15 @@
       <c r="G47" s="2">
         <v>-0.22061195862571106</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I47" s="8">
+        <v>27.59749999999989</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>26.267499999999892</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E48" s="3">
         <v>93</v>
       </c>
@@ -16829,8 +17023,15 @@
       <c r="G48" s="2">
         <v>-0.22150129029465904</v>
       </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I48" s="5">
+        <v>29.259999999999891</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>27.929999999999893</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E49" s="3">
         <v>101</v>
       </c>
@@ -16840,8 +17041,15 @@
       <c r="G49" s="2">
         <v>-0.18114786581614428</v>
       </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I49" s="8">
+        <v>30.14666666666659</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>28.816666666666592</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E50" s="3">
         <v>106</v>
       </c>
@@ -16851,8 +17059,15 @@
       <c r="G50" s="2">
         <v>0.25618098238902653</v>
       </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I50" s="5">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>30.589999999999897</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E51" s="3">
         <v>115</v>
       </c>
@@ -16862,8 +17077,15 @@
       <c r="G51" s="2">
         <v>0.20493324496589901</v>
       </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I51" s="5">
+        <v>33.249999999999893</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>31.919999999999895</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E52" s="3">
         <v>131</v>
       </c>
@@ -16873,8 +17095,15 @@
       <c r="G52" s="2">
         <v>-0.2497375707837575</v>
       </c>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I52" s="8">
+        <v>34.912499999999895</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>33.582499999999897</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E53" s="3">
         <v>136</v>
       </c>
@@ -16884,8 +17113,15 @@
       <c r="G53" s="2">
         <v>0.19159326993167924</v>
       </c>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I53" s="8">
+        <v>35.577499999999894</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>34.247499999999896</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E54" s="3">
         <v>162</v>
       </c>
@@ -16894,6 +17130,58 @@
       </c>
       <c r="G54" s="2">
         <v>-0.3405605674750703</v>
+      </c>
+      <c r="I54" s="8">
+        <v>37.683333333333195</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>36.353333333333197</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="I55" s="5">
+        <v>38.569999999999894</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>37.239999999999895</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="I56" s="5">
+        <v>39.899999999999892</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>38.569999999999894</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="I57" s="5">
+        <v>41.229999999999897</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>39.899999999999899</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="I58" s="8">
+        <v>43.003333333333195</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>41.673333333333197</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I59" s="10">
+        <v>43.889999999999894</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>42.559999999999896</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/15次高調波の比較.xlsx
+++ b/Graphs/15次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2067,11 +2067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1098062784"/>
-        <c:axId val="1098061216"/>
+        <c:axId val="1181295056"/>
+        <c:axId val="1181297800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1098062784"/>
+        <c:axId val="1181295056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -2188,12 +2188,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098061216"/>
+        <c:crossAx val="1181297800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1098061216"/>
+        <c:axId val="1181297800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,7 +2313,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098062784"/>
+        <c:crossAx val="1181295056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3314,12 +3314,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1098067488"/>
-        <c:axId val="1098063176"/>
+        <c:axId val="1181297016"/>
+        <c:axId val="1181297408"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1098067488"/>
+        <c:axId val="1181297016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3361,7 +3361,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3428,12 +3427,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098063176"/>
+        <c:crossAx val="1181297408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1098063176"/>
+        <c:axId val="1181297408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,7 +3478,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3546,7 +3544,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098067488"/>
+        <c:crossAx val="1181297016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4469,12 +4467,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1098063568"/>
-        <c:axId val="1098063960"/>
+        <c:axId val="-1839471688"/>
+        <c:axId val="-1839472472"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1098063568"/>
+        <c:axId val="-1839471688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4516,7 +4514,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4583,12 +4580,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098063960"/>
+        <c:crossAx val="-1839472472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1098063960"/>
+        <c:axId val="-1839472472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4634,7 +4631,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4701,7 +4697,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098063568"/>
+        <c:crossAx val="-1839471688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5278,11 +5274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1098065920"/>
-        <c:axId val="1098066704"/>
+        <c:axId val="747121384"/>
+        <c:axId val="-1734776784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1098065920"/>
+        <c:axId val="747121384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5391,12 +5387,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098066704"/>
+        <c:crossAx val="-1734776784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1098066704"/>
+        <c:axId val="-1734776784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5509,7 +5505,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098065920"/>
+        <c:crossAx val="747121384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7787,15 +7783,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8217,7 +8213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -15572,7 +15568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J35"/>
     </sheetView>
   </sheetViews>
